--- a/data/financial_statements/soci/EQT.xlsx
+++ b/data/financial_statements/soci/EQT.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2069463000</v>
+        <v>3697000000</v>
       </c>
       <c r="C2">
-        <v>2527508000</v>
+        <v>3373000000</v>
       </c>
       <c r="D2">
-        <v>-579110000</v>
+        <v>2499000000</v>
       </c>
       <c r="E2">
-        <v>3839694000</v>
+        <v>2823000000</v>
       </c>
       <c r="F2">
-        <v>-1464838000</v>
+        <v>1792000000</v>
       </c>
       <c r="G2">
         <v>-260116000</v>
@@ -745,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>2.4128</v>
+        <v>1.0631</v>
       </c>
       <c r="C3">
-        <v>10.7168</v>
+        <v>13.9673</v>
       </c>
       <c r="D3">
-        <v>-1.6096</v>
+        <v>1.6307</v>
       </c>
       <c r="E3">
-        <v>2.0654</v>
+        <v>1.2537</v>
       </c>
       <c r="F3">
-        <v>-9.510199999999999</v>
+        <v>9.4109</v>
       </c>
       <c r="G3">
         <v>-1.4935</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>623234000</v>
+        <v>1042000000</v>
       </c>
       <c r="C4">
-        <v>624001000</v>
+        <v>1053000000</v>
       </c>
       <c r="D4">
-        <v>587888000</v>
+        <v>1010000000</v>
       </c>
       <c r="E4">
-        <v>611328000</v>
+        <v>1088000000</v>
       </c>
       <c r="F4">
-        <v>573215000</v>
+        <v>1016000000</v>
       </c>
       <c r="G4">
         <v>513341000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1446229000</v>
+        <v>2655000000</v>
       </c>
       <c r="C5">
-        <v>1903507000</v>
+        <v>2319000000</v>
       </c>
       <c r="D5">
-        <v>-1166998000</v>
+        <v>1489000000</v>
       </c>
       <c r="E5">
-        <v>3228366000</v>
+        <v>1735000000</v>
       </c>
       <c r="F5">
-        <v>-2038053000</v>
+        <v>776000000</v>
       </c>
       <c r="G5">
         <v>-773457000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="X6">
         <v>3122000</v>
@@ -1125,8 +1236,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>67231000</v>
@@ -1141,7 +1252,7 @@
         <v>52343000</v>
       </c>
       <c r="F7">
-        <v>49113000</v>
+        <v>49000000</v>
       </c>
       <c r="G7">
         <v>49853000</v>
@@ -1247,8 +1358,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>924585900</v>
@@ -1369,8 +1480,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>60000000</v>
@@ -1410,8 +1521,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>60138000</v>
@@ -1423,7 +1534,7 @@
         <v>67902000</v>
       </c>
       <c r="E10">
-        <v>76469000</v>
+        <v>8000000</v>
       </c>
       <c r="F10">
         <v>75509000</v>
@@ -1532,23 +1643,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-84918000</v>
+        <v>1672000000</v>
       </c>
       <c r="C11">
-        <v>-159443000</v>
+        <v>999000000</v>
       </c>
       <c r="D11">
-        <v>-92014000</v>
+        <v>3323000000</v>
       </c>
       <c r="E11">
-        <v>-63713000</v>
+        <v>-779000000</v>
       </c>
       <c r="F11">
-        <v>-28065000</v>
+        <v>3259000000</v>
       </c>
       <c r="G11">
         <v>-61992000</v>
@@ -1654,23 +1765,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>839668000</v>
+        <v>840000000</v>
       </c>
       <c r="C12">
-        <v>1202458000</v>
+        <v>1202000000</v>
       </c>
       <c r="D12">
-        <v>-1980280000</v>
+        <v>-1980000000</v>
       </c>
       <c r="E12">
-        <v>2393634000</v>
+        <v>2394000000</v>
       </c>
       <c r="F12">
-        <v>-2637591000</v>
+        <v>-2642000000</v>
       </c>
       <c r="G12">
         <v>-1279633000</v>
@@ -1776,23 +1887,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>152206000</v>
+        <v>152000000</v>
       </c>
       <c r="C13">
-        <v>308234000</v>
+        <v>308000000</v>
       </c>
       <c r="D13">
-        <v>-465697000</v>
+        <v>-466000000</v>
       </c>
       <c r="E13">
-        <v>591080000</v>
+        <v>591000000</v>
       </c>
       <c r="F13">
-        <v>-661380000</v>
+        <v>-663000000</v>
       </c>
       <c r="G13">
         <v>-346311000</v>
@@ -1898,8 +2009,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>687462000</v>
@@ -2020,8 +2131,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2082,8 +2193,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>3792000</v>
@@ -2183,23 +2294,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>683670000</v>
+        <v>684000000</v>
       </c>
       <c r="C17">
-        <v>891361000</v>
+        <v>891000000</v>
       </c>
       <c r="D17">
-        <v>-1516048000</v>
+        <v>-1516000000</v>
       </c>
       <c r="E17">
-        <v>1801333000</v>
+        <v>1801000000</v>
       </c>
       <c r="F17">
-        <v>-1976812000</v>
+        <v>-1980000000</v>
       </c>
       <c r="G17">
         <v>-933260000</v>
@@ -2305,20 +2416,20 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="C18">
-        <v>2.41</v>
+        <v>2.19</v>
       </c>
       <c r="D18">
         <v>-4.05</v>
       </c>
       <c r="E18">
-        <v>4.77</v>
+        <v>4.69</v>
       </c>
       <c r="F18">
         <v>-5.55</v>
@@ -2427,8 +2538,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1.69</v>
@@ -2549,23 +2660,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>369987000</v>
+        <v>370000000</v>
       </c>
       <c r="C20">
-        <v>369866000</v>
+        <v>370000000</v>
       </c>
       <c r="D20">
-        <v>374142000</v>
+        <v>374000000</v>
       </c>
       <c r="E20">
-        <v>377988000</v>
+        <v>378000000</v>
       </c>
       <c r="F20">
-        <v>356792000</v>
+        <v>357000000</v>
       </c>
       <c r="G20">
         <v>279156000</v>
@@ -2671,23 +2782,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>403889000</v>
+        <v>404000000</v>
       </c>
       <c r="C21">
-        <v>407303000</v>
+        <v>407000000</v>
       </c>
       <c r="D21">
-        <v>374142000</v>
+        <v>374000000</v>
       </c>
       <c r="E21">
-        <v>383780000</v>
+        <v>384000000</v>
       </c>
       <c r="F21">
-        <v>356792000</v>
+        <v>357000000</v>
       </c>
       <c r="G21">
         <v>279156000</v>
@@ -2793,23 +2904,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.6988</v>
+        <v>0.7181</v>
       </c>
       <c r="C22">
-        <v>0.7531</v>
+        <v>0.6875</v>
       </c>
       <c r="D22">
-        <v>2.0152</v>
+        <v>0.5958</v>
       </c>
       <c r="E22">
-        <v>0.8408</v>
+        <v>0.6146</v>
       </c>
       <c r="F22">
-        <v>1.3913</v>
+        <v>0.433</v>
       </c>
       <c r="G22">
         <v>2.9735</v>
@@ -2915,23 +3026,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.4468</v>
+        <v>0.2501</v>
       </c>
       <c r="C23">
-        <v>0.5387999999999999</v>
+        <v>0.4038</v>
       </c>
       <c r="D23">
-        <v>3.2606</v>
+        <v>-0.7556</v>
       </c>
       <c r="E23">
-        <v>0.64</v>
+        <v>0.8705000000000001</v>
       </c>
       <c r="F23">
-        <v>1.7814</v>
+        <v>-1.4562</v>
       </c>
       <c r="G23">
         <v>4.6811</v>
@@ -3037,23 +3148,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.4057</v>
+        <v>0.2272</v>
       </c>
       <c r="C24">
-        <v>0.4757</v>
+        <v>0.3564</v>
       </c>
       <c r="D24">
-        <v>3.4195</v>
+        <v>-0.7923</v>
       </c>
       <c r="E24">
-        <v>0.6234</v>
+        <v>0.848</v>
       </c>
       <c r="F24">
-        <v>1.8006</v>
+        <v>-1.4743</v>
       </c>
       <c r="G24">
         <v>4.9195</v>
@@ -3159,23 +3270,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.3304</v>
+        <v>0.185</v>
       </c>
       <c r="C25">
-        <v>0.3527</v>
+        <v>0.2642</v>
       </c>
       <c r="D25">
-        <v>2.6179</v>
+        <v>-0.6066</v>
       </c>
       <c r="E25">
-        <v>0.4691</v>
+        <v>0.638</v>
       </c>
       <c r="F25">
-        <v>1.3495</v>
+        <v>-1.1049</v>
       </c>
       <c r="G25">
         <v>3.5879</v>
@@ -3281,23 +3392,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>1375712000</v>
+        <v>2991000000</v>
       </c>
       <c r="C26">
-        <v>1809121000</v>
+        <v>2682000000</v>
       </c>
       <c r="D26">
-        <v>-1452989000</v>
+        <v>1825000000</v>
       </c>
       <c r="E26">
-        <v>2982108000</v>
+        <v>2159000000</v>
       </c>
       <c r="F26">
-        <v>-2161492000</v>
+        <v>1131000000</v>
       </c>
       <c r="G26">
         <v>-830956000</v>
@@ -3403,8 +3514,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>924585900</v>
@@ -3525,8 +3636,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>687462000</v>
@@ -3647,8 +3758,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="Q29">
         <v>-163911000</v>
@@ -3685,23 +3796,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>687462000</v>
+        <v>687000000</v>
       </c>
       <c r="C30">
-        <v>894224000</v>
+        <v>894000000</v>
       </c>
       <c r="D30">
-        <v>-1514583000</v>
+        <v>-1515000000</v>
       </c>
       <c r="E30">
-        <v>1802554000</v>
+        <v>1803000000</v>
       </c>
       <c r="F30">
-        <v>-1976211000</v>
+        <v>-1980000000</v>
       </c>
       <c r="G30">
         <v>-933322000</v>
@@ -3807,8 +3918,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.8581</v>
@@ -3929,8 +4040,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.7021</v>
@@ -4051,8 +4162,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="Q33">
         <v>-0.15</v>
@@ -4089,8 +4200,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="Q34">
         <v>-0.15</v>
@@ -4127,8 +4238,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>1.8581</v>
@@ -4249,8 +4360,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1.7021</v>
@@ -4371,8 +4482,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>403889000</v>
@@ -4493,23 +4604,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.6647999999999999</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="C38">
-        <v>0.7158</v>
+        <v>0.7951</v>
       </c>
       <c r="D38">
-        <v>2.509</v>
+        <v>0.7302999999999999</v>
       </c>
       <c r="E38">
-        <v>0.7766999999999999</v>
+        <v>0.7648</v>
       </c>
       <c r="F38">
-        <v>1.4756</v>
+        <v>0.6311</v>
       </c>
       <c r="G38">
         <v>3.1946</v>
@@ -4615,23 +4726,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>0.5558</v>
+        <v>0.3111</v>
       </c>
       <c r="C39">
-        <v>0.0912</v>
+        <v>0.0683</v>
       </c>
       <c r="D39">
-        <v>-1.7634</v>
+        <v>0.4087</v>
       </c>
       <c r="E39">
-        <v>0.305</v>
+        <v>0.4148</v>
       </c>
       <c r="F39">
-        <v>-0.0328</v>
+        <v>0.0268</v>
       </c>
       <c r="G39">
         <v>-0.1672</v>
